--- a/DDF/Phase2.1/TY_05/TestData_03B.xlsx
+++ b/DDF/Phase2.1/TY_05/TestData_03B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>TestCaseNumber</t>
   </si>
@@ -73,6 +73,42 @@
   </si>
   <si>
     <t>TC_ID_24</t>
+  </si>
+  <si>
+    <t>SP_TC_52</t>
+  </si>
+  <si>
+    <t>Data4</t>
+  </si>
+  <si>
+    <t>Print Preview</t>
+  </si>
+  <si>
+    <t>JINCY_SKU_0</t>
+  </si>
+  <si>
+    <t>ORD REQ DATE:</t>
+  </si>
+  <si>
+    <t>Data5</t>
+  </si>
+  <si>
+    <t>Data6</t>
+  </si>
+  <si>
+    <t>DELIVERY DATE:</t>
+  </si>
+  <si>
+    <t>Data7</t>
+  </si>
+  <si>
+    <t>ROUTE CODE: 4001</t>
+  </si>
+  <si>
+    <t>TOTAL       1        $9.00</t>
+  </si>
+  <si>
+    <t>Ricolino</t>
   </si>
 </sst>
 </file>
@@ -399,21 +435,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,19 +467,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -449,20 +501,23 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2">
         <v>16</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="L2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -473,7 +528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -484,7 +539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -495,7 +550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -506,7 +561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -517,7 +572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -528,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -539,8 +594,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
